--- a/biology/Zoologie/Garnbergia/Garnbergia.xlsx
+++ b/biology/Zoologie/Garnbergia/Garnbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garnbergia ommata
-Garnbergia est un genre éteint de poissons à membres charnus rattaché à la famille des Mawsoniidae, elle-même regroupée au sein des Coelacanthiformes. Une seule espèce est assignée à ce genre : Garnbergia ommata  créée par Martin et Wenz en 1984 à partir d'un fossile fragmentaire, un crâne et un morceau du corps, découvert dans le Bade-Wurtemberg en Allemagne[1].
+Garnbergia est un genre éteint de poissons à membres charnus rattaché à la famille des Mawsoniidae, elle-même regroupée au sein des Coelacanthiformes. Une seule espèce est assignée à ce genre : Garnbergia ommata  créée par Martin et Wenz en 1984 à partir d'un fossile fragmentaire, un crâne et un morceau du corps, découvert dans le Bade-Wurtemberg en Allemagne.
 Ces fossiles proviennent de sédiments datés de l'Anisien (Trias moyen), il y a environ entre −247 et −242 Ma (millions d'années).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Classification phylogénique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification phylogénique, la position taxonomique du genre Garnbergia est discutée, la qualité médiocre du seul fossile ne facilite pas sa détermination. Les différents auteurs le considèrent cependant comme séparé des familles des Mawsoniidae et des Latimeriidae[2],[3],[4],[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification phylogénique, la position taxonomique du genre Garnbergia est discutée, la qualité médiocre du seul fossile ne facilite pas sa détermination. Les différents auteurs le considèrent cependant comme séparé des familles des Mawsoniidae et des Latimeriidae :
 </t>
         </is>
       </c>
